--- a/database/masters/accn-seeder.xlsx
+++ b/database/masters/accn-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsimasten/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/siasep.devapp/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817EDD7-E963-5D43-8027-3C16B43A34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB678FD-D602-824A-938B-C175491AD6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>blue-grey</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>module</t>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,25 +629,23 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -662,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -694,13 +689,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -712,16 +707,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -729,22 +724,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="3" t="b">
         <v>1</v>
@@ -758,25 +753,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="3" t="b">
         <v>1</v>
@@ -790,25 +785,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="b">
         <v>1</v>
@@ -822,25 +817,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>1</v>
@@ -854,25 +849,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
@@ -886,25 +881,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
@@ -918,25 +913,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
@@ -950,25 +945,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
@@ -1001,101 +996,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1119,26 +1114,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1162,101 +1157,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1281,128 +1276,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/accn-seeder.xlsx
+++ b/database/masters/accn-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/siasep.devapp/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB678FD-D602-824A-938B-C175491AD6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9D851D-4916-0E41-9AB5-FA9B4310179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,12 +183,6 @@
     <t>view, show</t>
   </si>
   <si>
-    <t>pegawai</t>
-  </si>
-  <si>
-    <t>superadmin, pegawai</t>
-  </si>
-  <si>
     <t>Tasklist</t>
   </si>
   <si>
@@ -220,18 +214,38 @@
   </si>
   <si>
     <t>supervised_user_circle</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>superadmin, administrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,16 +305,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,7 +598,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +686,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,22 +900,22 @@
         <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
@@ -916,22 +932,22 @@
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
@@ -948,22 +964,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
@@ -1065,7 +1081,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>50</v>
@@ -1076,7 +1092,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>50</v>
@@ -1087,7 +1103,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>50</v>
@@ -1103,13 +1119,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,8 +1148,8 @@
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1146,13 +1162,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1173,8 +1189,8 @@
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>53</v>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1184,8 +1200,8 @@
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1195,8 +1211,8 @@
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1206,8 +1222,8 @@
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1217,8 +1233,8 @@
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,10 +1242,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,10 +1253,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,10 +1264,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1264,13 +1280,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1295,8 +1311,8 @@
       <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>53</v>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1309,8 +1325,8 @@
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
+      <c r="C3" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1323,8 +1339,8 @@
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1337,8 +1353,8 @@
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1351,8 +1367,8 @@
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1363,10 +1379,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
         <v>53</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1377,10 +1393,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1391,10 +1407,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
